--- a/FLUO_SPAD/SPAD.xlsx
+++ b/FLUO_SPAD/SPAD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Borsa di studio__fisiologia vegetale2024\Misurazioni\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DOTTORATO\PROGETTI\PELLEGRINI\suber_analysis\FLUO_SPAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76A1E16-9EA1-4592-8232-5F01206563A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313BCA33-08B1-47CE-94BA-1B9B74395145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4529CD7C-FABC-48C2-975A-4AB74FC90A24}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="121">
   <si>
     <t>ID</t>
   </si>
@@ -381,6 +381,24 @@
   </si>
   <si>
     <t>12-03-2024</t>
+  </si>
+  <si>
+    <t>inoculum</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>NT</t>
   </si>
 </sst>
 </file>
@@ -776,23 +794,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8BE4FC-7DD9-42B4-8608-AD75BC909EF6}">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K98" sqref="K98"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.33203125" customWidth="1"/>
-    <col min="7" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.33203125" customWidth="1"/>
+    <col min="9" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -800,34 +820,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -835,21 +861,27 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="3">
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3">
         <v>47.1</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -857,23 +889,29 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3">
+      <c r="F3" s="3">
         <v>42.9</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="3">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
         <v>43.2</v>
       </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -881,21 +919,27 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
         <v>49.1</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -903,23 +947,29 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3">
+      <c r="F5" s="3">
         <v>38.200000000000003</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="3">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3">
         <v>39.799999999999997</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -927,21 +977,27 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
         <v>42.5</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -949,10 +1005,14 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -960,8 +1020,10 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -969,23 +1031,29 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3">
-        <v>41.1</v>
-      </c>
+      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3">
+        <v>41.1</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
         <v>39.299999999999997</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -993,21 +1061,27 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3">
         <v>46.9</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1015,27 +1089,33 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3">
+      <c r="F10" s="3">
         <v>57.1</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
         <v>50.5</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>42.9</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>46</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1043,10 +1123,14 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -1054,8 +1138,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1063,31 +1149,37 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="3">
+      <c r="F12" s="3">
         <v>43.2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>45.5</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>39</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3">
-        <v>46.2</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3">
+        <v>46.2</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
         <v>43.6</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>44.6</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1095,21 +1187,27 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3">
         <v>49.8</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1117,21 +1215,27 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3">
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3">
         <v>33.5</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1139,21 +1243,27 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
         <v>46.7</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1161,23 +1271,29 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
         <v>48.7</v>
       </c>
-      <c r="K16" s="3">
+      <c r="M16" s="3">
         <v>36.4</v>
       </c>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1185,21 +1301,27 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
         <v>47.6</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1207,25 +1329,31 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" t="s">
         <v>20</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3">
-        <v>39.799999999999997</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3">
-        <v>40.200000000000003</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3">
         <v>40.9</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1233,10 +1361,14 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1244,8 +1376,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1253,25 +1387,31 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3">
-        <v>46.7</v>
-      </c>
+      <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3">
+        <v>46.7</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3">
         <v>46</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>46</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1279,21 +1419,27 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3">
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3">
         <v>44.5</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
       <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1301,10 +1447,14 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -1312,8 +1462,10 @@
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1321,23 +1473,29 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
         <v>39.700000000000003</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3">
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3">
         <v>41.9</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1345,21 +1503,27 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="3">
+      <c r="F24" s="3">
         <v>42.4</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1367,25 +1531,31 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3">
         <v>46.5</v>
       </c>
-      <c r="F25" s="3">
+      <c r="H25" s="3">
         <v>52.5</v>
       </c>
-      <c r="G25" s="3">
+      <c r="I25" s="3">
         <v>42.1</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1393,21 +1563,27 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" t="s">
+        <v>119</v>
+      </c>
+      <c r="E26" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3">
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3">
         <v>49.9</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1415,23 +1591,29 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="3">
+      <c r="F27" s="3">
         <v>47.5</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
         <v>45.7</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1439,23 +1621,29 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3">
         <v>41.6</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="3">
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3">
         <v>41.5</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
       <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1463,21 +1651,27 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="3">
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3">
         <v>31.4</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1485,21 +1679,27 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3">
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3">
         <v>45</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1507,10 +1707,14 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -1518,8 +1722,10 @@
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1527,23 +1733,29 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" t="s">
+        <v>120</v>
+      </c>
+      <c r="E32" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="3">
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3">
         <v>43.1</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>39.200000000000003</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1551,29 +1763,35 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" t="s">
+        <v>120</v>
+      </c>
+      <c r="E33" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="3">
+      <c r="F33" s="3">
         <v>42.5</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>37.9</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>56.5</v>
-      </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3">
-        <v>43.4</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3">
+        <v>43.4</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3">
         <v>42.1</v>
       </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1581,23 +1799,29 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
+        <v>117</v>
+      </c>
+      <c r="D34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" t="s">
         <v>37</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3">
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3">
         <v>47</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
       <c r="J34" s="3"/>
-      <c r="K34" s="3">
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3">
         <v>46.1</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1605,21 +1829,27 @@
         <v>29</v>
       </c>
       <c r="C35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" t="s">
         <v>38</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="3">
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3">
         <v>45.3</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
       <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1627,21 +1857,27 @@
         <v>29</v>
       </c>
       <c r="C36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3">
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3">
         <v>42.5</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1649,21 +1885,27 @@
         <v>29</v>
       </c>
       <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="3">
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3">
         <v>41.7</v>
       </c>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1671,10 +1913,14 @@
         <v>29</v>
       </c>
       <c r="C38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -1682,8 +1928,10 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1691,23 +1939,29 @@
         <v>29</v>
       </c>
       <c r="C39" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3">
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3">
         <v>47.8</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3">
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3">
         <v>49.4</v>
       </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1715,25 +1969,31 @@
         <v>29</v>
       </c>
       <c r="C40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" t="s">
         <v>43</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3">
-        <v>48.6</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3">
+        <v>48.6</v>
+      </c>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3">
         <v>46.5</v>
       </c>
-      <c r="H40" s="3">
+      <c r="J40" s="3">
         <v>49.4</v>
       </c>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1741,23 +2001,29 @@
         <v>29</v>
       </c>
       <c r="C41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="3">
+      <c r="F41" s="3">
         <v>40</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>41.7</v>
       </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1765,21 +2031,27 @@
         <v>29</v>
       </c>
       <c r="C42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
-      <c r="I42" s="3">
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3">
         <v>43.1</v>
       </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
       <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1787,21 +2059,27 @@
         <v>29</v>
       </c>
       <c r="C43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="3">
+      <c r="F43" s="3">
         <v>44.3</v>
       </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1809,21 +2087,27 @@
         <v>29</v>
       </c>
       <c r="C44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="3">
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3">
         <v>48.1</v>
       </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1831,23 +2115,29 @@
         <v>29</v>
       </c>
       <c r="C45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" t="s">
+        <v>120</v>
+      </c>
+      <c r="E45" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="3">
+      <c r="F45" s="3">
         <v>40.6</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3">
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3">
         <v>41.3</v>
       </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1855,23 +2145,29 @@
         <v>29</v>
       </c>
       <c r="C46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="3">
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3">
         <v>36.700000000000003</v>
       </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3">
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3">
         <v>39.200000000000003</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1879,25 +2175,31 @@
         <v>29</v>
       </c>
       <c r="C47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D47" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" t="s">
         <v>50</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="3">
-        <v>44.7</v>
-      </c>
+      <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3">
-        <v>45.9</v>
+        <v>44.7</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47" s="3">
+        <v>45.9</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3">
         <v>44.7</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1905,21 +2207,27 @@
         <v>29</v>
       </c>
       <c r="C48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="3">
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3">
         <v>47</v>
       </c>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1927,21 +2235,27 @@
         <v>29</v>
       </c>
       <c r="C49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="3">
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3">
         <v>43.7</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1949,25 +2263,31 @@
         <v>29</v>
       </c>
       <c r="C50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3">
+      <c r="F50" s="3"/>
+      <c r="G50" s="3">
         <v>41.6</v>
       </c>
-      <c r="F50" s="3">
+      <c r="H50" s="3">
         <v>45.3</v>
       </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3">
+      <c r="I50" s="3"/>
+      <c r="J50" s="3">
         <v>45.5</v>
       </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1975,10 +2295,14 @@
         <v>29</v>
       </c>
       <c r="C51" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" t="s">
         <v>54</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -1986,8 +2310,10 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1995,23 +2321,29 @@
         <v>55</v>
       </c>
       <c r="C52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" t="s">
         <v>56</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="3">
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3">
         <v>40.700000000000003</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>43.8</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2019,10 +2351,14 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" t="s">
+        <v>119</v>
+      </c>
+      <c r="E53" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -2030,8 +2366,10 @@
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2039,23 +2377,29 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" t="s">
+        <v>119</v>
+      </c>
+      <c r="E54" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3">
+      <c r="F54" s="3"/>
+      <c r="G54" s="3">
         <v>39.4</v>
       </c>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3">
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3">
         <v>40.4</v>
       </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2063,21 +2407,27 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" t="s">
         <v>59</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
-      <c r="I55" s="3">
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3">
         <v>36.4</v>
       </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2085,10 +2435,14 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -2096,8 +2450,10 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2105,23 +2461,29 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" t="s">
+        <v>119</v>
+      </c>
+      <c r="E57" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
-      <c r="I57" s="3">
-        <v>40.299999999999997</v>
-      </c>
+      <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3">
         <v>39.6</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2129,23 +2491,29 @@
         <v>55</v>
       </c>
       <c r="C58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" t="s">
         <v>62</v>
       </c>
-      <c r="D58" s="3">
+      <c r="F58" s="3">
         <v>44.7</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3">
+      <c r="G58" s="3"/>
+      <c r="H58" s="3">
         <v>37.6</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2153,25 +2521,31 @@
         <v>55</v>
       </c>
       <c r="C59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" t="s">
         <v>63</v>
-      </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3">
-        <v>47.8</v>
       </c>
       <c r="F59" s="3"/>
       <c r="G59" s="3">
-        <v>50.4</v>
+        <v>47.8</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3">
+        <v>50.4</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3">
         <v>43.4</v>
       </c>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
       <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2179,21 +2553,27 @@
         <v>55</v>
       </c>
       <c r="C60" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" t="s">
+        <v>119</v>
+      </c>
+      <c r="E60" t="s">
         <v>64</v>
       </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
-      <c r="H60" s="3">
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3">
         <v>32.799999999999997</v>
       </c>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2201,25 +2581,31 @@
         <v>55</v>
       </c>
       <c r="C61" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" t="s">
         <v>65</v>
       </c>
-      <c r="D61" s="3">
+      <c r="F61" s="3">
         <v>40.1</v>
       </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3">
+      <c r="G61" s="3"/>
+      <c r="H61" s="3">
         <v>38.4</v>
       </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="3">
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3">
         <v>40.299999999999997</v>
       </c>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2227,29 +2613,35 @@
         <v>55</v>
       </c>
       <c r="C62" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" t="s">
         <v>66</v>
       </c>
-      <c r="D62" s="3">
+      <c r="F62" s="3">
         <v>42.3</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>45.4</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>41.1</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>39.4</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>42</v>
       </c>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2257,21 +2649,27 @@
         <v>55</v>
       </c>
       <c r="C63" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" t="s">
+        <v>119</v>
+      </c>
+      <c r="E63" t="s">
         <v>67</v>
       </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
-      <c r="K63" s="3">
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3">
         <v>38.1</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2279,21 +2677,27 @@
         <v>55</v>
       </c>
       <c r="C64" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" t="s">
         <v>68</v>
       </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
-      <c r="H64" s="3">
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3">
         <v>43.9</v>
       </c>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2301,25 +2705,31 @@
         <v>55</v>
       </c>
       <c r="C65" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" t="s">
+        <v>119</v>
+      </c>
+      <c r="E65" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3">
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3">
         <v>41.5</v>
       </c>
-      <c r="G65" s="3">
+      <c r="I65" s="3">
         <v>38.9</v>
       </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3">
+      <c r="J65" s="3"/>
+      <c r="K65" s="3">
         <v>43.9</v>
       </c>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2327,21 +2737,27 @@
         <v>55</v>
       </c>
       <c r="C66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D66" t="s">
+        <v>119</v>
+      </c>
+      <c r="E66" t="s">
         <v>70</v>
       </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="3">
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3">
         <v>36.9</v>
       </c>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2349,10 +2765,14 @@
         <v>55</v>
       </c>
       <c r="C67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D67" t="s">
+        <v>119</v>
+      </c>
+      <c r="E67" t="s">
         <v>71</v>
       </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -2360,8 +2780,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2369,10 +2791,14 @@
         <v>55</v>
       </c>
       <c r="C68" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" t="s">
         <v>72</v>
       </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -2380,8 +2806,10 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2389,21 +2817,27 @@
         <v>55</v>
       </c>
       <c r="C69" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" t="s">
+        <v>119</v>
+      </c>
+      <c r="E69" t="s">
         <v>73</v>
       </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
       <c r="F69" s="3"/>
-      <c r="G69" s="3">
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3">
         <v>52.1</v>
       </c>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2411,29 +2845,35 @@
         <v>55</v>
       </c>
       <c r="C70" t="s">
+        <v>118</v>
+      </c>
+      <c r="D70" t="s">
+        <v>119</v>
+      </c>
+      <c r="E70" t="s">
         <v>74</v>
       </c>
-      <c r="D70" s="3">
+      <c r="F70" s="3">
         <v>43.9</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>47</v>
       </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3">
-        <v>46</v>
-      </c>
+      <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3">
+        <v>46</v>
+      </c>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3">
         <v>40</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>46</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2441,21 +2881,27 @@
         <v>55</v>
       </c>
       <c r="C71" t="s">
+        <v>118</v>
+      </c>
+      <c r="D71" t="s">
+        <v>119</v>
+      </c>
+      <c r="E71" t="s">
         <v>75</v>
       </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="3">
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3">
         <v>45.7</v>
       </c>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
       <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2463,10 +2909,14 @@
         <v>55</v>
       </c>
       <c r="C72" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" t="s">
+        <v>119</v>
+      </c>
+      <c r="E72" t="s">
         <v>76</v>
       </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -2474,8 +2924,10 @@
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2483,10 +2935,14 @@
         <v>55</v>
       </c>
       <c r="C73" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" t="s">
+        <v>119</v>
+      </c>
+      <c r="E73" t="s">
         <v>77</v>
       </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -2494,8 +2950,10 @@
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2503,25 +2961,31 @@
         <v>55</v>
       </c>
       <c r="C74" t="s">
+        <v>118</v>
+      </c>
+      <c r="D74" t="s">
+        <v>119</v>
+      </c>
+      <c r="E74" t="s">
         <v>78</v>
       </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3">
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3">
         <v>45.2</v>
       </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
       <c r="I74" s="3"/>
-      <c r="J74" s="3">
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3">
         <v>44.9</v>
       </c>
-      <c r="K74" s="3">
+      <c r="M74" s="3">
         <v>42.9</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2529,23 +2993,29 @@
         <v>55</v>
       </c>
       <c r="C75" t="s">
+        <v>118</v>
+      </c>
+      <c r="D75" t="s">
+        <v>119</v>
+      </c>
+      <c r="E75" t="s">
         <v>79</v>
-      </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3">
-        <v>37.5</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3">
+        <v>37.5</v>
+      </c>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3">
         <v>38.6</v>
       </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2553,21 +3023,27 @@
         <v>55</v>
       </c>
       <c r="C76" t="s">
+        <v>118</v>
+      </c>
+      <c r="D76" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" t="s">
         <v>80</v>
       </c>
-      <c r="D76" s="3">
+      <c r="F76" s="3">
         <v>43.7</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2575,10 +3051,14 @@
         <v>81</v>
       </c>
       <c r="C77" t="s">
+        <v>118</v>
+      </c>
+      <c r="D77" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" t="s">
         <v>82</v>
       </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -2586,8 +3066,10 @@
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2595,21 +3077,27 @@
         <v>81</v>
       </c>
       <c r="C78" t="s">
+        <v>118</v>
+      </c>
+      <c r="D78" t="s">
+        <v>120</v>
+      </c>
+      <c r="E78" t="s">
         <v>83</v>
       </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
-      <c r="H78" s="3">
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3">
         <v>41.8</v>
       </c>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2617,25 +3105,31 @@
         <v>81</v>
       </c>
       <c r="C79" t="s">
+        <v>118</v>
+      </c>
+      <c r="D79" t="s">
+        <v>120</v>
+      </c>
+      <c r="E79" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="3">
+      <c r="F79" s="3">
         <v>46.8</v>
       </c>
-      <c r="E79" s="3">
+      <c r="G79" s="3">
         <v>44.4</v>
       </c>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
-      <c r="K79" s="3">
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3">
         <v>45.6</v>
       </c>
-      <c r="L79" s="3"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N79" s="3"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2643,23 +3137,29 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
+        <v>118</v>
+      </c>
+      <c r="D80" t="s">
+        <v>120</v>
+      </c>
+      <c r="E80" t="s">
         <v>85</v>
       </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
-      <c r="H80" s="3">
-        <v>49.2</v>
-      </c>
+      <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3">
+        <v>49.2</v>
+      </c>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3">
         <v>43.3</v>
       </c>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2667,21 +3167,27 @@
         <v>81</v>
       </c>
       <c r="C81" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81" t="s">
+        <v>120</v>
+      </c>
+      <c r="E81" t="s">
         <v>86</v>
       </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
-      <c r="I81" s="3">
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3">
         <v>44.5</v>
       </c>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
       <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2689,10 +3195,14 @@
         <v>81</v>
       </c>
       <c r="C82" t="s">
+        <v>118</v>
+      </c>
+      <c r="D82" t="s">
+        <v>120</v>
+      </c>
+      <c r="E82" t="s">
         <v>87</v>
       </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -2700,8 +3210,10 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2709,23 +3221,29 @@
         <v>81</v>
       </c>
       <c r="C83" t="s">
+        <v>118</v>
+      </c>
+      <c r="D83" t="s">
+        <v>120</v>
+      </c>
+      <c r="E83" t="s">
         <v>88</v>
       </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
       <c r="F83" s="3"/>
-      <c r="G83" s="3">
-        <v>42.7</v>
-      </c>
+      <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3">
+        <v>42.7</v>
+      </c>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3">
         <v>39.299999999999997</v>
       </c>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
       <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2733,21 +3251,27 @@
         <v>81</v>
       </c>
       <c r="C84" t="s">
+        <v>118</v>
+      </c>
+      <c r="D84" t="s">
+        <v>120</v>
+      </c>
+      <c r="E84" t="s">
         <v>89</v>
       </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
-      <c r="H84" s="3">
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3">
         <v>48.5</v>
       </c>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2755,23 +3279,29 @@
         <v>81</v>
       </c>
       <c r="C85" t="s">
+        <v>118</v>
+      </c>
+      <c r="D85" t="s">
+        <v>120</v>
+      </c>
+      <c r="E85" t="s">
         <v>90</v>
       </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3">
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3">
         <v>43.7</v>
       </c>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
       <c r="I85" s="3"/>
-      <c r="J85" s="3">
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3">
         <v>48.4</v>
       </c>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2779,25 +3309,31 @@
         <v>81</v>
       </c>
       <c r="C86" t="s">
+        <v>118</v>
+      </c>
+      <c r="D86" t="s">
+        <v>120</v>
+      </c>
+      <c r="E86" t="s">
         <v>91</v>
       </c>
-      <c r="D86" s="3">
+      <c r="F86" s="3">
         <v>42.6</v>
       </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3">
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3">
         <v>46</v>
       </c>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
       <c r="J86" s="3"/>
-      <c r="K86" s="3">
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3">
         <v>42.8</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2805,21 +3341,27 @@
         <v>81</v>
       </c>
       <c r="C87" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" t="s">
+        <v>120</v>
+      </c>
+      <c r="E87" t="s">
         <v>92</v>
       </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
-      <c r="I87" s="3">
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3">
         <v>42.6</v>
       </c>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
       <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2827,21 +3369,27 @@
         <v>81</v>
       </c>
       <c r="C88" t="s">
+        <v>118</v>
+      </c>
+      <c r="D88" t="s">
+        <v>120</v>
+      </c>
+      <c r="E88" t="s">
         <v>93</v>
       </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
-      <c r="J88" s="3">
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3">
         <v>49.9</v>
       </c>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2849,23 +3397,29 @@
         <v>81</v>
       </c>
       <c r="C89" t="s">
+        <v>118</v>
+      </c>
+      <c r="D89" t="s">
+        <v>120</v>
+      </c>
+      <c r="E89" t="s">
         <v>94</v>
       </c>
-      <c r="D89" s="3">
+      <c r="F89" s="3">
         <v>44.1</v>
       </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
-      <c r="I89" s="3">
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3">
         <v>39.9</v>
       </c>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
       <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2873,10 +3427,14 @@
         <v>81</v>
       </c>
       <c r="C90" t="s">
+        <v>118</v>
+      </c>
+      <c r="D90" t="s">
+        <v>120</v>
+      </c>
+      <c r="E90" t="s">
         <v>95</v>
       </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -2884,8 +3442,10 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2893,23 +3453,29 @@
         <v>81</v>
       </c>
       <c r="C91" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91" t="s">
+        <v>120</v>
+      </c>
+      <c r="E91" t="s">
         <v>96</v>
       </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
       <c r="F91" s="3"/>
-      <c r="G91" s="3">
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3">
         <v>31</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>41.4</v>
       </c>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2917,25 +3483,31 @@
         <v>81</v>
       </c>
       <c r="C92" t="s">
+        <v>118</v>
+      </c>
+      <c r="D92" t="s">
+        <v>120</v>
+      </c>
+      <c r="E92" t="s">
         <v>97</v>
       </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3">
+      <c r="F92" s="3"/>
+      <c r="G92" s="3">
         <v>39.9</v>
       </c>
-      <c r="F92" s="3">
+      <c r="H92" s="3">
         <v>47.1</v>
       </c>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
-      <c r="K92" s="3">
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3">
         <v>43.2</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2943,10 +3515,14 @@
         <v>81</v>
       </c>
       <c r="C93" t="s">
+        <v>118</v>
+      </c>
+      <c r="D93" t="s">
+        <v>120</v>
+      </c>
+      <c r="E93" t="s">
         <v>98</v>
       </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -2954,8 +3530,10 @@
       <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2963,21 +3541,27 @@
         <v>81</v>
       </c>
       <c r="C94" t="s">
+        <v>118</v>
+      </c>
+      <c r="D94" t="s">
+        <v>120</v>
+      </c>
+      <c r="E94" t="s">
         <v>99</v>
       </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
-      <c r="K94" s="3">
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3">
         <v>43.9</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2985,23 +3569,29 @@
         <v>81</v>
       </c>
       <c r="C95" t="s">
+        <v>118</v>
+      </c>
+      <c r="D95" t="s">
+        <v>120</v>
+      </c>
+      <c r="E95" t="s">
         <v>100</v>
-      </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3">
-        <v>45.1</v>
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="3">
+        <v>45.1</v>
+      </c>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3">
         <v>38.4</v>
       </c>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3009,23 +3599,29 @@
         <v>81</v>
       </c>
       <c r="C96" t="s">
+        <v>118</v>
+      </c>
+      <c r="D96" t="s">
+        <v>120</v>
+      </c>
+      <c r="E96" t="s">
         <v>101</v>
       </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3">
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3">
         <v>22.2</v>
       </c>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
       <c r="I96" s="3"/>
-      <c r="J96" s="3">
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3">
         <v>37.799999999999997</v>
       </c>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3033,25 +3629,31 @@
         <v>81</v>
       </c>
       <c r="C97" t="s">
+        <v>118</v>
+      </c>
+      <c r="D97" t="s">
+        <v>120</v>
+      </c>
+      <c r="E97" t="s">
         <v>102</v>
       </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3">
-        <v>48.8</v>
-      </c>
+      <c r="F97" s="3"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3">
+        <v>48.8</v>
+      </c>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3">
         <v>44.5</v>
       </c>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3">
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3">
         <v>42.7</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3059,23 +3661,29 @@
         <v>81</v>
       </c>
       <c r="C98" t="s">
+        <v>118</v>
+      </c>
+      <c r="D98" t="s">
+        <v>120</v>
+      </c>
+      <c r="E98" t="s">
         <v>103</v>
       </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3">
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3">
         <v>27.7</v>
       </c>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
       <c r="I98" s="3"/>
-      <c r="J98" s="3">
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3">
         <v>41.7</v>
       </c>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3083,25 +3691,31 @@
         <v>81</v>
       </c>
       <c r="C99" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" t="s">
+        <v>120</v>
+      </c>
+      <c r="E99" t="s">
         <v>104</v>
       </c>
-      <c r="D99" s="3">
+      <c r="F99" s="3">
         <v>46.3</v>
       </c>
-      <c r="E99" s="3">
+      <c r="G99" s="3">
         <v>48.2</v>
       </c>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
       <c r="H99" s="3"/>
-      <c r="I99" s="3">
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3">
         <v>45.1</v>
       </c>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
       <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3109,10 +3723,14 @@
         <v>81</v>
       </c>
       <c r="C100" t="s">
+        <v>118</v>
+      </c>
+      <c r="D100" t="s">
+        <v>120</v>
+      </c>
+      <c r="E100" t="s">
         <v>105</v>
       </c>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -3120,8 +3738,10 @@
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3129,23 +3749,29 @@
         <v>81</v>
       </c>
       <c r="C101" t="s">
+        <v>118</v>
+      </c>
+      <c r="D101" t="s">
+        <v>120</v>
+      </c>
+      <c r="E101" t="s">
         <v>106</v>
       </c>
-      <c r="D101" s="3">
+      <c r="F101" s="3">
         <v>34.700000000000003</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>37.5</v>
       </c>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3">
+      <c r="H101" s="3"/>
+      <c r="I101" s="3">
         <v>38.6</v>
       </c>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
